--- a/LogoDrawing.xlsx
+++ b/LogoDrawing.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ITCS_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9419C75-FCFE-46F2-AD3C-1DC483ADC9D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5712B3-BE0E-403E-9162-3B79A9804E89}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CE56AE11-0B98-4D95-819B-D4AB6466EEBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="3">
   <si>
     <t>*</t>
   </si>
@@ -49,7 +40,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,8 +56,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,6 +85,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -119,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -149,6 +158,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -468,14 +492,14 @@
   <dimension ref="A1:BG29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK23" sqref="AK23"/>
+      <selection activeCell="BO24" sqref="BO24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="2.5546875" style="1"/>
-    <col min="17" max="17" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="15" width="2.5546875" style="1"/>
+    <col min="16" max="17" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2.5546875" style="1"/>
     <col min="19" max="19" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="24" width="2.5546875" style="1"/>
@@ -488,7 +512,9 @@
     <col min="35" max="35" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="40" width="2.5546875" style="1"/>
     <col min="41" max="44" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="48" width="2.5546875" style="1"/>
+    <col min="45" max="45" width="2.5546875" style="1"/>
+    <col min="46" max="46" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="2.5546875" style="1"/>
     <col min="49" max="49" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="2.5546875" style="1"/>
     <col min="51" max="51" width="3" style="1" bestFit="1" customWidth="1"/>
@@ -500,67 +526,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4"/>
-      <c r="BF1" s="4"/>
-      <c r="BG1" s="4"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="11"/>
+      <c r="AY1" s="11"/>
+      <c r="AZ1" s="11"/>
+      <c r="BA1" s="11"/>
+      <c r="BB1" s="11"/>
+      <c r="BC1" s="11"/>
+      <c r="BD1" s="11"/>
+      <c r="BE1" s="11"/>
+      <c r="BF1" s="11"/>
+      <c r="BG1" s="11"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
@@ -1309,67 +1335,67 @@
       <c r="BF9" s="5"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="4"/>
-      <c r="AO11" s="4"/>
-      <c r="AP11" s="4"/>
-      <c r="AQ11" s="4"/>
-      <c r="AR11" s="4"/>
-      <c r="AS11" s="4"/>
-      <c r="AT11" s="4"/>
-      <c r="AU11" s="4"/>
-      <c r="AV11" s="4"/>
-      <c r="AW11" s="4"/>
-      <c r="AX11" s="4"/>
-      <c r="AY11" s="4"/>
-      <c r="AZ11" s="4"/>
-      <c r="BA11" s="4"/>
-      <c r="BB11" s="4"/>
-      <c r="BC11" s="4"/>
-      <c r="BD11" s="4"/>
-      <c r="BE11" s="4"/>
-      <c r="BF11" s="4"/>
-      <c r="BG11" s="4"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="11"/>
+      <c r="AR11" s="11"/>
+      <c r="AS11" s="11"/>
+      <c r="AT11" s="11"/>
+      <c r="AU11" s="11"/>
+      <c r="AV11" s="11"/>
+      <c r="AW11" s="11"/>
+      <c r="AX11" s="11"/>
+      <c r="AY11" s="11"/>
+      <c r="AZ11" s="11"/>
+      <c r="BA11" s="11"/>
+      <c r="BB11" s="11"/>
+      <c r="BC11" s="11"/>
+      <c r="BD11" s="11"/>
+      <c r="BE11" s="11"/>
+      <c r="BF11" s="11"/>
+      <c r="BG11" s="11"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
@@ -1779,7 +1805,7 @@
       <c r="BE16" s="2"/>
       <c r="BF16" s="2"/>
     </row>
-    <row r="17" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1858,7 +1884,7 @@
       <c r="BE17" s="2"/>
       <c r="BF17" s="2"/>
     </row>
-    <row r="18" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1937,7 +1963,7 @@
       <c r="BE18" s="2"/>
       <c r="BF18" s="2"/>
     </row>
-    <row r="19" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2052,28 +2078,674 @@
       <c r="BE19" s="2"/>
       <c r="BF19" s="2"/>
     </row>
-    <row r="22" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="AS22" s="9"/>
+    <row r="21" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>7</v>
+      </c>
+      <c r="K21" s="13">
+        <v>9</v>
+      </c>
+      <c r="P21" s="6">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>15</v>
+      </c>
+      <c r="S21" s="1">
+        <v>17</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>23</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>25</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>31</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>33</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>39</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>41</v>
+      </c>
+      <c r="AR21" s="8"/>
+      <c r="AT21" s="6">
+        <v>44</v>
+      </c>
+      <c r="AW21" s="13">
+        <v>47</v>
+      </c>
+      <c r="AY21" s="1">
+        <v>49</v>
+      </c>
+      <c r="BE21" s="1">
+        <v>55</v>
+      </c>
+      <c r="BG21" s="4">
+        <v>69</v>
+      </c>
     </row>
-    <row r="23" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="AS23" s="9"/>
+    <row r="22" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="U22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="V22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="W22" s="12"/>
+      <c r="X22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="12"/>
+      <c r="AV22" s="12"/>
+      <c r="AW22" s="12"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
+      <c r="AZ22" s="2"/>
+      <c r="BA22" s="2"/>
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="2"/>
+      <c r="BD22" s="2"/>
+      <c r="BE22" s="2"/>
+      <c r="BF22" s="2"/>
     </row>
-    <row r="24" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="AS24" s="9"/>
+    <row r="23" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="12"/>
+      <c r="AJ23" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="12"/>
+      <c r="AL23" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="12"/>
+      <c r="AN23" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="12"/>
+      <c r="AP23" s="12"/>
+      <c r="AQ23" s="12"/>
+      <c r="AR23" s="12"/>
+      <c r="AS23" s="12"/>
+      <c r="AT23" s="12"/>
+      <c r="AU23" s="12"/>
+      <c r="AV23" s="12"/>
+      <c r="AW23" s="12"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="2"/>
+      <c r="BA23" s="2"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="2"/>
+      <c r="BD23" s="2"/>
+      <c r="BE23" s="2"/>
+      <c r="BF23" s="2"/>
     </row>
-    <row r="25" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="AS25" s="9"/>
+    <row r="24" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="12"/>
+      <c r="AH24" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="12"/>
+      <c r="AJ24" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="12"/>
+      <c r="AL24" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="12"/>
+      <c r="AN24" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="12"/>
+      <c r="AP24" s="12"/>
+      <c r="AQ24" s="12"/>
+      <c r="AR24" s="12"/>
+      <c r="AS24" s="12"/>
+      <c r="AT24" s="12"/>
+      <c r="AU24" s="12"/>
+      <c r="AV24" s="12"/>
+      <c r="AW24" s="12"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2"/>
+      <c r="AZ24" s="2"/>
+      <c r="BA24" s="2"/>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="2"/>
+      <c r="BD24" s="2"/>
+      <c r="BE24" s="2"/>
+      <c r="BF24" s="2"/>
     </row>
-    <row r="26" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="AS26" s="9"/>
+    <row r="25" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="U25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="V25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="W25" s="12"/>
+      <c r="X25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="12"/>
+      <c r="AL25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="12"/>
+      <c r="AN25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="12"/>
+      <c r="AT25" s="12"/>
+      <c r="AU25" s="12"/>
+      <c r="AV25" s="12"/>
+      <c r="AW25" s="12"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="2"/>
+      <c r="BA25" s="2"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="2"/>
+      <c r="BD25" s="2"/>
+      <c r="BE25" s="2"/>
+      <c r="BF25" s="2"/>
     </row>
-    <row r="27" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="AS27" s="9"/>
+    <row r="26" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="W26" s="12"/>
+      <c r="X26" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="12"/>
+      <c r="AL26" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="12"/>
+      <c r="AN26" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="12"/>
+      <c r="AP26" s="12"/>
+      <c r="AQ26" s="12"/>
+      <c r="AR26" s="12"/>
+      <c r="AS26" s="12"/>
+      <c r="AT26" s="12"/>
+      <c r="AU26" s="12"/>
+      <c r="AV26" s="12"/>
+      <c r="AW26" s="12"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="2"/>
+      <c r="AZ26" s="2"/>
+      <c r="BA26" s="2"/>
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="2"/>
+      <c r="BD26" s="2"/>
+      <c r="BE26" s="2"/>
+      <c r="BF26" s="2"/>
     </row>
-    <row r="28" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="AS28" s="9"/>
+    <row r="27" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="W27" s="12"/>
+      <c r="X27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" s="12"/>
+      <c r="AL27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="12"/>
+      <c r="AN27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="12"/>
+      <c r="AP27" s="12"/>
+      <c r="AQ27" s="12"/>
+      <c r="AR27" s="12"/>
+      <c r="AS27" s="12"/>
+      <c r="AT27" s="12"/>
+      <c r="AU27" s="12"/>
+      <c r="AV27" s="12"/>
+      <c r="AW27" s="12"/>
+      <c r="AX27" s="2"/>
+      <c r="AY27" s="2"/>
+      <c r="AZ27" s="2"/>
+      <c r="BA27" s="2"/>
+      <c r="BB27" s="2"/>
+      <c r="BC27" s="2"/>
+      <c r="BD27" s="2"/>
+      <c r="BE27" s="2"/>
+      <c r="BF27" s="2"/>
     </row>
-    <row r="29" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="U28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="V28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="W28" s="12"/>
+      <c r="X28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="15"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+      <c r="AL28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="12"/>
+      <c r="AN28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="12"/>
+      <c r="AV28" s="12"/>
+      <c r="AW28" s="12"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="2"/>
+      <c r="AZ28" s="2"/>
+      <c r="BA28" s="2"/>
+      <c r="BB28" s="2"/>
+      <c r="BC28" s="2"/>
+      <c r="BD28" s="2"/>
+      <c r="BE28" s="2"/>
+      <c r="BF28" s="2"/>
+    </row>
+    <row r="29" spans="1:59" x14ac:dyDescent="0.3">
       <c r="AS29" s="9"/>
     </row>
   </sheetData>
@@ -2082,6 +2754,6 @@
     <mergeCell ref="A11:BG11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>